--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_02_end.xlsx
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]Kötz and I will go with the doctor to check out that 'safe house'. Tina, you stay here with Alexsandr.
+    <t xml:space="preserve">[name="Ash"]Kötz and I will go with the doctor to check out that 'safe house.' Tina, you stay here with Alexsandr.
 </t>
   </si>
   <si>
@@ -2040,7 +2040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blitz"]알겠습니다.
+    <t xml:space="preserve">[name="Blitz"]알았어.
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]알겠습니다.
+    <t xml:space="preserve">[name="Frost"]알았어.
 </t>
   </si>
   <si>
